--- a/muban (2).xlsx
+++ b/muban (2).xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>name(奖品名称)</t>
     <rPh sb="5" eb="6">
@@ -149,7 +149,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>relation_id(关联活动id，在我发起的活动中查询)</t>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲谱音乐体验中心免费体验券</t>
+  </si>
+  <si>
+    <t>台典正味免费香肠券</t>
+  </si>
+  <si>
+    <t>2358免费体验券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_name(抽奖活动名称)</t>
     <rPh sb="12" eb="13">
       <t>guan'lian</t>
     </rPh>
@@ -162,21 +180,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲谱音乐体验中心免费体验券</t>
-  </si>
-  <si>
-    <t>台典正味免费香肠券</t>
-  </si>
-  <si>
-    <t>2358免费体验券</t>
+    <t>摇一摇，抽大奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,11 +234,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
@@ -538,8 +543,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+      <c r="A1" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -564,65 +569,59 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2">
-        <v>17</v>
+      <c r="A2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>17</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>17</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>17</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>17</v>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/muban (2).xlsx
+++ b/muban (2).xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>name(奖品名称)</t>
     <rPh sb="5" eb="6">
@@ -149,39 +149,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲谱音乐体验中心免费体验券</t>
-  </si>
-  <si>
-    <t>台典正味免费香肠券</t>
-  </si>
-  <si>
-    <t>2358免费体验券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>act_name(抽奖活动名称)</t>
     <rPh sb="12" eb="13">
       <t>guan'lian</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>huo'dong</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>mo'ren</t>
+      <t>huo'dongmo'ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摇一摇，抽大奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>500元现金券</t>
+  </si>
+  <si>
+    <t>园区活动商家通用，不可提现，不可找零。</t>
+  </si>
+  <si>
+    <t>一等奖</t>
+  </si>
+  <si>
+    <t>8.17-9.30</t>
+  </si>
+  <si>
+    <t>宾王158文创园活动商家</t>
+  </si>
+  <si>
+    <t>100元现金券</t>
+  </si>
+  <si>
+    <t>二等奖</t>
+  </si>
+  <si>
+    <t>素陌生活陶艺课程体验券</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为不影响店铺正常营业，兑奖后免费体验课程安排每天前十名，另：免费陶艺课程体检券不含烧制等其他项目；活动最终解释权归本店所有 </t>
+  </si>
+  <si>
+    <t>三等奖</t>
+  </si>
+  <si>
+    <t>8.17-8.31</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区二楼二街2026-2032（素陌生活）</t>
+  </si>
+  <si>
+    <t>沫绿雨桂体验券</t>
+  </si>
+  <si>
+    <t>1.限单次使用，不折现不找零；2.活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>8.17-8.24</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街D1026（有茶出沫）</t>
+  </si>
+  <si>
+    <t>小童星模特全国连锁品牌义乌校区课程体验券</t>
+  </si>
+  <si>
+    <t>凭此券可免费体验价值356元的模特体验课一节,口才体验课一节（体验课预约请与客服18329097237玉米老师联系）</t>
+  </si>
+  <si>
+    <t>获奖当下即可生效</t>
+  </si>
+  <si>
+    <t>宾王158文创园D区2楼D2020-2023（小童星模特全国连锁品牌义乌校区）</t>
+  </si>
+  <si>
+    <t>沐生手造纯银戒指免费手工体验券</t>
+  </si>
+  <si>
+    <t>1.适用范围为店内固定款式；2.为不影响店铺正常营业，兑奖后免费体验课程安排每天前十名；3.活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区2楼3街2043（沐生手造）</t>
+  </si>
+  <si>
+    <t>湘雁饰品陶瓷项链</t>
+  </si>
+  <si>
+    <t>1.凭此券可免费获得陶瓷项链一条2.活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区2064（湘雁饰品店）</t>
+  </si>
+  <si>
+    <t>海翠翡琳免费体验券</t>
+  </si>
+  <si>
+    <t>1.凭此券可免费体验价值198元的温经通络套餐2.活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区二楼2062-2063（海翠翡琳）</t>
+  </si>
+  <si>
+    <t>甄珍服饰免费耳坠体验券</t>
+  </si>
+  <si>
+    <t>1.限店内纯手工耳坠；2. 活动解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区一楼1061（甄珍服饰）</t>
+  </si>
+  <si>
+    <t>ELLE免费体验券</t>
+  </si>
+  <si>
+    <t>1.凭此券可免费体验一次性手膜；2.现货有限，兑完即止；3.活动解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区一楼1095（ELLE）</t>
+  </si>
+  <si>
+    <t>聚善缘棉麻生活馆免费体验券</t>
+  </si>
+  <si>
+    <t>1.凭此券可免费体验店内指定手工酵素皂；2. 活动解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区一楼1091-1092（聚善缘棉麻生活馆）</t>
+  </si>
+  <si>
+    <t>吉颜美意免费体验券</t>
+  </si>
+  <si>
+    <t>1.凭此券可免费体验店内针织小钱包；2. 活动解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区一楼1065（吉颜美意）</t>
+  </si>
+  <si>
+    <t>意大利珠宝设计中心免费手链</t>
+  </si>
+  <si>
+    <t>1.凭此券可免费兑换水晶手链；2. 活动解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园一区3街1046意大利珠宝设计中心接待大厅</t>
+  </si>
+  <si>
+    <t>老北门五折券</t>
+  </si>
+  <si>
+    <t>配合店主转发朋友圈后，买一斤送一斤；活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>幸运奖</t>
+  </si>
+  <si>
+    <t>不限</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街C1053号（老北门酥饼麻花店）</t>
+  </si>
+  <si>
+    <t>老北门试吃券</t>
+  </si>
+  <si>
+    <t>限到店试吃，仅限小酥饼；活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>火吧烤肉6.8折券</t>
+  </si>
+  <si>
+    <t>不含酒水,优惠不可叠加；活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街C1050-1052（火吧烤肉）</t>
+  </si>
+  <si>
+    <t>陶陶海鲜八折券</t>
+  </si>
+  <si>
+    <t>活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街D1007-1011(陶陶海鲜）</t>
+  </si>
+  <si>
+    <t>陶陶海鲜大厨秘制牛肉酱兑换券</t>
+  </si>
+  <si>
+    <t>1.消费满300元即可凭此券向商家兑换2.植物油、牛肉、调料、炒制而成、口味浓郁、下饭首选；活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街D1007-101（陶陶海鲜）</t>
+  </si>
+  <si>
+    <t>东北妞8.8折券</t>
+  </si>
+  <si>
+    <t>全场菜品8.8折，活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园C1080(东北妞)</t>
+  </si>
+  <si>
+    <t>有茶出沫5元抵价券</t>
+  </si>
+  <si>
+    <t>限单次使用，不可叠加优惠，不折现不找零；活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街D1026(有茶出沫）</t>
+  </si>
+  <si>
+    <t>哆可奶茶半价券</t>
+  </si>
+  <si>
+    <t>全场第二杯半价，活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园C1082（哆可奶茶）</t>
+  </si>
+  <si>
+    <t>淞藤精致寿司买一送一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.本店享受堂食买一送一活动，买的多送的多，按单价较高的寿司单品结算，套餐不参与活动 2.活动最终解释权归本店所有</t>
+  </si>
+  <si>
+    <t>宾王158文创园D1016（淞藤精致寿司）</t>
+  </si>
+  <si>
+    <t>潘老壮鸭舌特价券</t>
+  </si>
+  <si>
+    <t>到店凭券可优惠购买96元合家欢套餐（包含产品:鸭舌85克，鸭头2个，干脖2根，鸭肫4个，鸭架4个，鸭翅、鸭掌或鸡爪各5个）</t>
+  </si>
+  <si>
+    <t>8.17—8.27</t>
+  </si>
+  <si>
+    <t>宾王158文创园美食街D1023（潘老壮鸭舌）</t>
+  </si>
+  <si>
+    <t>集七熊赢大奖</t>
   </si>
 </sst>
 </file>
@@ -189,7 +395,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -237,9 +443,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,15 +730,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
@@ -543,8 +749,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -569,62 +775,608 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
+      <c r="A4" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4">
+        <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4">
+        <v>69</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
+        <v>34</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4">
+        <v>140</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4">
+        <v>136</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4">
+        <v>197</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>198</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="4">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4">
+        <v>153</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4">
+        <v>196</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="4">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4">
+        <v>195</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="4">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4">
+        <v>195</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="B2:H24"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/muban (2).xlsx
+++ b/muban (2).xlsx
@@ -387,7 +387,8 @@
     <t>宾王158文创园美食街D1023（潘老壮鸭舌）</t>
   </si>
   <si>
-    <t>集七熊赢大奖</t>
+    <t>圣诞抽大奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -395,7 +396,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -445,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
